--- a/data/trans_orig/cron_prev_index-Clase-trans_orig.xlsx
+++ b/data/trans_orig/cron_prev_index-Clase-trans_orig.xlsx
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,33; 0,48</t>
+          <t>0,32; 0,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,42 +734,42 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,39; 0,56</t>
+          <t>0,38; 0,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,58; 0,73</t>
+          <t>0,58; 0,72</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,32; 0,49</t>
+          <t>0,32; 0,5</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,28; 0,46</t>
+          <t>0,28; 0,47</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,34; 0,53</t>
+          <t>0,35; 0,52</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,52; 0,66</t>
+          <t>0,53; 0,67</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,35; 0,46</t>
+          <t>0,34; 0,46</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,36; 0,47</t>
+          <t>0,36; 0,48</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -869,37 +869,37 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,34; 0,51</t>
+          <t>0,34; 0,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,41; 0,58</t>
+          <t>0,4; 0,57</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,59; 0,76</t>
+          <t>0,6; 0,76</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,29; 0,47</t>
+          <t>0,29; 0,46</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,31; 0,49</t>
+          <t>0,32; 0,49</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,31; 0,46</t>
+          <t>0,31; 0,47</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,48; 0,62</t>
+          <t>0,47; 0,61</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -909,7 +909,7 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,35; 0,46</t>
+          <t>0,34; 0,46</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,56; 0,68</t>
+          <t>0,56; 0,67</t>
         </is>
       </c>
     </row>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,41; 0,56</t>
+          <t>0,41; 0,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -1014,27 +1014,27 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,49; 0,64</t>
+          <t>0,49; 0,63</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,19; 0,81</t>
+          <t>0,18; 0,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,45; 0,74</t>
+          <t>0,44; 0,73</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,56; 0,8</t>
+          <t>0,56; 0,79</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,6; 1,0</t>
+          <t>0,59; 0,96</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,22 +1044,22 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,44; 0,56</t>
+          <t>0,44; 0,57</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,61; 0,76</t>
+          <t>0,61; 0,77</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,55; 0,69</t>
+          <t>0,54; 0,68</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,25; 0,85</t>
+          <t>0,27; 0,86</t>
         </is>
       </c>
     </row>
@@ -1149,47 +1149,47 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,55; 0,68</t>
+          <t>0,55; 0,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,52; 0,63</t>
+          <t>0,53; 0,63</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,66; 0,79</t>
+          <t>0,67; 0,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,47; 0,62</t>
+          <t>0,48; 0,61</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,4; 0,52</t>
+          <t>0,4; 0,51</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,39; 0,51</t>
+          <t>0,38; 0,5</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,61; 2,01</t>
+          <t>0,61; 2,04</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,51; 0,59</t>
+          <t>0,52; 0,6</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,51; 0,59</t>
+          <t>0,5; 0,59</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,67; 1,6</t>
+          <t>0,67; 1,52</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,37; 0,55</t>
+          <t>0,37; 0,56</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,66; 0,86</t>
+          <t>0,66; 0,85</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1309,12 +1309,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,74; 0,92</t>
+          <t>0,75; 0,92</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,67; 0,82</t>
+          <t>0,67; 0,83</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1329,12 +1329,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,66; 0,79</t>
+          <t>0,66; 0,78</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,63; 0,73</t>
+          <t>0,63; 0,74</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,32 +1424,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,17</t>
+          <t>0,08; 0,16</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,12; 0,26</t>
+          <t>0,13; 0,25</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,13; 0,24</t>
+          <t>0,14; 0,25</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,17; 0,4</t>
+          <t>0,16; 0,39</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,81; 0,94</t>
+          <t>0,81; 0,93</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,92; 1,08</t>
+          <t>0,93; 1,08</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,67; 0,77</t>
+          <t>0,68; 0,78</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,69; 0,82</t>
+          <t>0,69; 0,81</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,48; 0,7</t>
+          <t>0,48; 0,69</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,79; 1,33</t>
+          <t>0,79; 1,32</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,53; 0,58</t>
+          <t>0,53; 0,57</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0,7; 1,03</t>
+          <t>0,7; 1,0</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/cron_prev_index-Clase-trans_orig.xlsx
+++ b/data/trans_orig/cron_prev_index-Clase-trans_orig.xlsx
@@ -1346,7 +1346,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
